--- a/Countries.xlsx
+++ b/Countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan Smith\Documents\GIT\public_development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B38BE77-B09E-4A2E-BB54-6748F984B9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FF6B25-B881-40FA-BC7D-E8F88D39A414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E7C88EDC-7F83-480B-86DE-A883AA43EFE3}"/>
   </bookViews>
@@ -4452,9 +4452,9 @@
   <dimension ref="A1:S251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <pane xSplit="6" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="topRight" activeCell="D242" sqref="A242:XFD242"/>
+      <selection pane="topRight" activeCell="I229" sqref="I229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4"/>
@@ -31686,6 +31686,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010001CA6CCB71D2FE4DB8996D198A558654" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bed4c3277d5e33cf1e0d3d20b5c54983">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0355bb5c-f23d-498e-8b8f-e842532e1465" xmlns:ns3="c0120e5b-2963-4b3a-8e5e-b65657b6a9c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="11f83ceb7b9a700c5625a19fef8a32a4" ns2:_="" ns3:_="">
     <xsd:import namespace="0355bb5c-f23d-498e-8b8f-e842532e1465"/>
@@ -31850,12 +31856,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -31866,6 +31866,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFF8FE01-BA8A-4C66-9DF8-0AC4B3F654FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0355bb5c-f23d-498e-8b8f-e842532e1465"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c0120e5b-2963-4b3a-8e5e-b65657b6a9c8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35B93F59-5EB2-452D-9780-946A46C0EC0C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31884,23 +31901,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFF8FE01-BA8A-4C66-9DF8-0AC4B3F654FF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0355bb5c-f23d-498e-8b8f-e842532e1465"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c0120e5b-2963-4b3a-8e5e-b65657b6a9c8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED4767F-809C-41D7-8A6E-268D5414864B}">
   <ds:schemaRefs>
